--- a/WebPage/Common/RptTemplet/0516Report.xlsx
+++ b/WebPage/Common/RptTemplet/0516Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\CSIP_CardFlow\WebPage\Common\RptTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E5441C-C770-447F-977C-1CDEFB7A425C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0080BE4-A8A8-4D3E-9DEE-8ADBEEDE35D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -179,18 +179,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -476,101 +477,102 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
-    <col min="5" max="12" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" style="2" customWidth="1"/>
+    <col min="5" max="12" width="17.140625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="4" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="1" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
     </row>
